--- a/Semana 15 NFL 2025.xlsx
+++ b/Semana 15 NFL 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F54CAA4-1FB9-4A40-A7DD-5F5763606A57}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -285,13 +285,16 @@
   </si>
   <si>
     <t>cjps@citlali.mx</t>
+  </si>
+  <si>
+    <t>mtol@citlali.mx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,9 +323,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,8 +410,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W28" totalsRowShown="0">
-  <autoFilter ref="A1:W28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:W29" totalsRowShown="0">
+  <autoFilter ref="A1:W29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="20">
       <extLst>
@@ -573,7 +578,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71URVhXUzk2MFNBSEFTSUUxMFFHUjlFMURBNy4u" isFormConnected="1" maxResponseId="27" latestEventMarker="31">
+      <xlmsforms:msForm id="Ew6S_j6TmUGba0PxbvosXNMIBO2N8pVCv8gZ49IHQ71URVhXUzk2MFNBSEFTSUUxMFFHUjlFMURBNy4u" isFormConnected="1" maxResponseId="28" latestEventMarker="31">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -900,16 +905,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="23" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1048,7 +1053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1524,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1592,7 +1597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1728,7 +1733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2068,7 +2073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2136,7 +2141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2204,7 +2209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2340,7 +2345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2476,7 +2481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2612,7 +2617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2748,7 +2753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2814,6 +2819,75 @@
       </c>
       <c r="W28">
         <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>46002.645671296297</v>
+      </c>
+      <c r="C29" s="1">
+        <v>46002.652326388903</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
